--- a/testcases/Verify API TC-015.xlsx
+++ b/testcases/Verify API TC-015.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\luxetrainee\cypress_cucumber\testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\luxetrainee\webdriverio_docker_compose_ghAction\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C32788-3D1A-4F43-9B29-C4D08D76FBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F87DB6-89DB-45BE-9739-19532B5B4671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11985" yWindow="1800" windowWidth="15555" windowHeight="10950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7875" yWindow="4650" windowWidth="15555" windowHeight="10950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -459,7 +459,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
